--- a/Gestión Muni 2020/Antofagasta 2.xls.xlsx
+++ b/Gestión Muni 2020/Antofagasta 2.xls.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karen\Dropbox\Diseño DATA's (1)\DATA-MUNI\Gestión Muni 2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{68A0093F-B757-43CC-AB40-E8C4B33827A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{C2D2CA23-660D-4E46-A22D-F269F928ED3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1"/>
   </bookViews>
@@ -940,7 +940,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -989,6 +989,9 @@
     <xf numFmtId="0" fontId="19" fillId="40" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="46" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="46" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="45" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1038,8 +1041,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF9F5FCF"/>
       <color rgb="FFCFAFE7"/>
-      <color rgb="FF9F5FCF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -3113,8 +3116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:H58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -3353,7 +3356,7 @@
       <c r="G17" s="21">
         <v>185</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="24" t="s">
         <v>90</v>
       </c>
     </row>
@@ -3373,7 +3376,7 @@
       <c r="G18" s="21">
         <v>33</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="24" t="s">
         <v>90</v>
       </c>
     </row>
@@ -3413,7 +3416,7 @@
       <c r="G20" s="21">
         <v>153</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="24" t="s">
         <v>90</v>
       </c>
     </row>
@@ -3433,7 +3436,7 @@
       <c r="G21" s="21">
         <v>55</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" s="24" t="s">
         <v>90</v>
       </c>
     </row>
@@ -3599,7 +3602,7 @@
       <c r="G31" s="21">
         <v>38</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H31" s="24" t="s">
         <v>90</v>
       </c>
     </row>
@@ -3619,7 +3622,7 @@
       <c r="G32" s="21">
         <v>26</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H32" s="24" t="s">
         <v>90</v>
       </c>
     </row>
@@ -3679,7 +3682,7 @@
       <c r="G35" s="21">
         <v>37</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H35" s="24" t="s">
         <v>90</v>
       </c>
     </row>
@@ -3699,7 +3702,7 @@
       <c r="G36" s="21">
         <v>42</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H36" s="24" t="s">
         <v>90</v>
       </c>
     </row>
